--- a/biology/Botanique/Parc_Balbi/Parc_Balbi.xlsx
+++ b/biology/Botanique/Parc_Balbi/Parc_Balbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Balbi est un parc de type anglais, situé à côté du potager du roi à Versailles, en France.
@@ -513,7 +525,9 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Balbi constitue l'habitat de nombreuses espèces faunistiques : palmipèdes, petits carnassiers : renards, fouines, hérissons, des odonates (libellules), lépidoptères (papillons), hyménoptères (abeilles), oiseaux, reptiles : couleuvres, lézards verts… Il apporte la nature en ville et peut être un lieu pédagogique d'observation.
 </t>
@@ -544,10 +558,12 @@
           <t>Chronologie du parc Balbi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant 1730, l'emplacement du  parc Balbi était un boisement appartenant à différents propriétaires.
-En 1785, le comte de Provence achète un ensemble de parcelles afin de réaliser  un jardin d'agrément de type irrégulier, sorte de petite retraite champêtre, où le comte pouvait recevoir ses intimes et sa maîtresse en titre, Anne de Caumont La Force, comtesse de Balbi[1]. Le jardin est dessiné par l'architecte Jean-François-Thérèse Chalgrin. Un relevé est effectué par Du Caille : sur ce plan on peut découvrir le pavillon de Monsieur (au sud de la parcelle), une pièce d'eau prolongée par une rivière, un amas de pierre constituant une grotte surmontée d'un belvédère, quelques fabriques, des réservoirs ainsi qu'une serre chaude.
+En 1785, le comte de Provence achète un ensemble de parcelles afin de réaliser  un jardin d'agrément de type irrégulier, sorte de petite retraite champêtre, où le comte pouvait recevoir ses intimes et sa maîtresse en titre, Anne de Caumont La Force, comtesse de Balbi. Le jardin est dessiné par l'architecte Jean-François-Thérèse Chalgrin. Un relevé est effectué par Du Caille : sur ce plan on peut découvrir le pavillon de Monsieur (au sud de la parcelle), une pièce d'eau prolongée par une rivière, un amas de pierre constituant une grotte surmontée d'un belvédère, quelques fabriques, des réservoirs ainsi qu'une serre chaude.
 1786 : Le jardin prend sa forme définitive. Il est devenu un jardin « de collection ». En effet, le comte de Provence portait un intérêt particulier aux plantes et à leur constitution. Le jardin était composé d'arbres et d'arbustes tropicaux ou rares ainsi que d'autres essences forestières (érables, frênes…). De plus, le peuplier, un arbre en vogue à l'époque, est introduit sur les rives de la pièce d'eau. Le but du comte était de pouvoir « voyager dans son jardin ».
 1791 : Le comte et la comtesse doivent s'exiler et abandonnent donc le jardin.
 Automne 1792 : Au départ du comte, les végétaux rares sont prélevés pour enrichir la collection du Jardin des plantes du Muséum par André Thouin, jardinier en chef de ce même jardin.
@@ -559,7 +575,7 @@
 1912 : Un plan est dessiné par René-Édouard André.
 1914 : Le parc est affecté à l'École nationale supérieure d'horticulture qui fut créée en 1873 par Pierre Joigneaux.
 1914 - 1918 : Première Guerre mondiale. Le parc n'est pas entretenu.
-1926 : Le potager du Roi et le parc de Balbi font l'objet d'un classement au titre des monuments historiques par arrêté du 15 mars 1926[2].
+1926 : Le potager du Roi et le parc de Balbi font l'objet d'un classement au titre des monuments historiques par arrêté du 15 mars 1926.
 1930 :  Un projet de réaménagement et de restauration du parc est réalisé (tracé des allées, pièce d'eau…).
 1939 - 1945 : Deuxième Guerre mondiale. Le parc est à nouveau abandonné. Des arbres sont abattus à cause de la pénurie de bois pendant la guerre et le parc est partiellement transformé en verger.
 1960 : De nouveaux travaux de réaménagement sont effectués (arrachage des arbres fruitiers, nouveau tracé des allées, replantation d'arbres). L'association des Amis du Potager est créée. Des visites du parc Balbi sont organisées.
